--- a/StructureDefinition-JP-Observation-Common.xlsx
+++ b/StructureDefinition-JP-Observation-Common.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T05:47:24+00:00</t>
+    <t>2022-03-18T07:01:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
